--- a/output_results_unique.xlsx
+++ b/output_results_unique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:F284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.46.254.70/0, 10.46.254.236/0</t>
+          <t>10.46.254.70, 10.46.254.236</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>10.46.254.236/0</t>
+          <t>10.46.254.236</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10.46.254.236/0</t>
+          <t>10.46.254.236</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10.46.254.236/0</t>
+          <t>10.46.254.236</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10.46.254.236/0</t>
+          <t>10.46.254.236</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10.46.254.236/0</t>
+          <t>10.46.254.236</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10.46.254.74/0, 10.46.254.76/0, 10.46.254.77/0, 10.46.254.88/0</t>
+          <t>10.46.254.74, 10.46.254.76, 10.46.254.77, 10.46.254.88</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.46.254.88/0</t>
+          <t>10.46.254.88</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10.46.254.88/0</t>
+          <t>10.46.254.88</t>
         </is>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10.46.254.88/0</t>
+          <t>10.46.254.88</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10.46.254.88/0</t>
+          <t>10.46.254.88</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10.46.254.88/0</t>
+          <t>10.46.254.88</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10.46.254.71/0, 10.46.254.73/0, 10.46.254.88/0, 10.46.254.100/0, 10.46.254.101/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.120/0, 10.46.254.121/0, 10.46.254.122/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.71, 10.46.254.73, 10.46.254.88, 10.46.254.100, 10.46.254.101, 10.46.254.103, 10.46.254.104, 10.46.254.120, 10.46.254.121, 10.46.254.122, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.200/0, 10.46.254.203/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.200, 10.46.254.203</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3432,7 +3432,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4364,7 +4364,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4654,7 +4654,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4798,7 +4798,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152, 10.46.254.200, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104</t>
         </is>
       </c>
     </row>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152</t>
         </is>
       </c>
     </row>
@@ -4906,7 +4906,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.152/0</t>
+          <t>10.46.254.100, 10.46.254.103, 10.46.254.104, 10.46.254.152</t>
         </is>
       </c>
     </row>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>10.46.254.100/0, 10.46.254.100/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.104/0, 10.46.254.104/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.100, 10.46.254.100, 10.46.254.103, 10.46.254.103, 10.46.254.104, 10.46.254.104, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0, 10.46.254.103/0</t>
+          <t>10.46.254.103, 10.46.254.103, 10.46.254.103, 10.46.254.103</t>
         </is>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>10.46.254.152/0</t>
+          <t>10.46.254.152</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.204/0</t>
+          <t>10.46.254.152, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>10.46.254.152/0</t>
+          <t>10.46.254.152</t>
         </is>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0</t>
+          <t>10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152</t>
         </is>
       </c>
     </row>
@@ -5324,7 +5324,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.152, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>10.46.254.152/0</t>
+          <t>10.46.254.152</t>
         </is>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0</t>
+          <t>10.46.254.152, 10.46.254.152, 10.46.254.152</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>10.46.254.152/0</t>
+          <t>10.46.254.152</t>
         </is>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.152, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.204/0</t>
+          <t>10.46.254.152, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.152, 10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0</t>
+          <t>10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152</t>
         </is>
       </c>
     </row>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.152/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.200/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.152, 10.46.254.152, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.200, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -5739,7 +5739,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0</t>
+          <t>10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152</t>
         </is>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0</t>
+          <t>10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152</t>
         </is>
       </c>
     </row>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0</t>
+          <t>10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0</t>
+          <t>10.46.254.152, 10.46.254.152, 10.46.254.152</t>
         </is>
       </c>
     </row>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0</t>
+          <t>10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152</t>
         </is>
       </c>
     </row>
@@ -5933,7 +5933,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0, 10.46.254.152/0</t>
+          <t>10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152, 10.46.254.152</t>
         </is>
       </c>
     </row>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>10.46.254.200/0</t>
+          <t>10.46.254.200</t>
         </is>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>10.46.254.200/0, 10.46.254.203/0</t>
+          <t>10.46.254.200, 10.46.254.203</t>
         </is>
       </c>
     </row>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>10.46.254.200/0, 10.46.254.200/0, 10.46.254.203/0, 10.46.254.203/0</t>
+          <t>10.46.254.200, 10.46.254.200, 10.46.254.203, 10.46.254.203</t>
         </is>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>10.46.254.203/0</t>
+          <t>10.46.254.203</t>
         </is>
       </c>
     </row>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>10.46.254.203/0</t>
+          <t>10.46.254.203</t>
         </is>
       </c>
     </row>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>10.46.254.203/0</t>
+          <t>10.46.254.203</t>
         </is>
       </c>
     </row>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>10.46.254.203/0, 10.46.254.203/0</t>
+          <t>10.46.254.203, 10.46.254.203</t>
         </is>
       </c>
     </row>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>10.46.254.203/0, 10.46.254.204/0</t>
+          <t>10.46.254.203, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>10.46.254.203/0</t>
+          <t>10.46.254.203</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>10.46.254.203/0</t>
+          <t>10.46.254.203</t>
         </is>
       </c>
     </row>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>10.46.254.203/0</t>
+          <t>10.46.254.203</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>10.46.254.203/0, 10.46.254.203/0</t>
+          <t>10.46.254.203, 10.46.254.203</t>
         </is>
       </c>
     </row>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>10.46.254.203/0</t>
+          <t>10.46.254.203</t>
         </is>
       </c>
     </row>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>10.46.254.203/0, 10.46.254.203/0</t>
+          <t>10.46.254.203, 10.46.254.203</t>
         </is>
       </c>
     </row>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>10.46.254.203/0, 10.46.254.203/0</t>
+          <t>10.46.254.203, 10.46.254.203</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
         <is>
-          <t>10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0, 10.46.254.203/0</t>
+          <t>10.46.254.203, 10.46.254.203, 10.46.254.203, 10.46.254.203</t>
         </is>
       </c>
     </row>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>10.46.254.203/0, 10.46.254.203/0</t>
+          <t>10.46.254.203, 10.46.254.203</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>10.46.254.204/0</t>
+          <t>10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -6662,7 +6662,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0, 10.46.254.204/0</t>
+          <t>10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204, 10.46.254.204</t>
         </is>
       </c>
     </row>
@@ -6910,7 +6910,7 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>10.46.254.238/0</t>
+          <t>10.46.254.238</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>10.46.254.243/0, 10.46.254.244/0</t>
+          <t>10.46.254.243, 10.46.254.244</t>
         </is>
       </c>
     </row>
@@ -7054,7 +7054,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>10.46.254.243/0, 10.46.254.244/0</t>
+          <t>10.46.254.243, 10.46.254.244</t>
         </is>
       </c>
     </row>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.244/0, 10.46.254.244/0, 10.46.254.244/0, 10.46.254.244/0, 10.46.254.244/0, 10.46.254.244/0, 10.46.254.244/0, 10.46.254.244/0</t>
+          <t>10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.244, 10.46.254.244, 10.46.254.244, 10.46.254.244, 10.46.254.244, 10.46.254.244, 10.46.254.244, 10.46.254.244</t>
         </is>
       </c>
     </row>
@@ -7138,7 +7138,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>10.46.254.243/0, 10.46.254.244/0</t>
+          <t>10.46.254.243, 10.46.254.244</t>
         </is>
       </c>
     </row>
@@ -7175,7 +7175,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0</t>
+          <t>10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243</t>
         </is>
       </c>
     </row>
@@ -7212,7 +7212,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0</t>
+          <t>10.46.254.243, 10.46.254.243, 10.46.254.243</t>
         </is>
       </c>
     </row>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.244/0, 10.46.254.244/0, 10.46.254.244/0, 10.46.254.244/0, 10.46.254.244/0, 10.46.254.244/0, 10.46.254.244/0</t>
+          <t>10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.244, 10.46.254.244, 10.46.254.244, 10.46.254.244, 10.46.254.244, 10.46.254.244, 10.46.254.244</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.244/0, 10.46.254.244/0, 10.46.254.244/0</t>
+          <t>10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.244, 10.46.254.244, 10.46.254.244</t>
         </is>
       </c>
     </row>
@@ -7370,7 +7370,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0</t>
+          <t>10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243</t>
         </is>
       </c>
     </row>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0, 10.46.254.243/0</t>
+          <t>10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243, 10.46.254.243</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>10.46.254.148/0, 10.46.254.149/0</t>
+          <t>10.46.254.148, 10.46.254.149</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>10.46.254.4/0</t>
+          <t>10.46.254.4</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>10.46.254.149/0</t>
+          <t>10.46.254.149</t>
         </is>
       </c>
     </row>
@@ -7834,7 +7834,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>10.46.254.149/0</t>
+          <t>10.46.254.149</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>10.46.254.149/0</t>
+          <t>10.46.254.149</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0</t>
+          <t>10.46.254.149, 10.46.254.149, 10.46.254.149, 10.46.254.149, 10.46.254.149, 10.46.254.149</t>
         </is>
       </c>
     </row>
@@ -7946,7 +7946,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>10.46.254.149/0</t>
+          <t>10.46.254.149</t>
         </is>
       </c>
     </row>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>10.46.254.149/0</t>
+          <t>10.46.254.149</t>
         </is>
       </c>
     </row>
@@ -8022,7 +8022,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>10.46.254.149/0</t>
+          <t>10.46.254.149</t>
         </is>
       </c>
     </row>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>10.46.254.149/0</t>
+          <t>10.46.254.149</t>
         </is>
       </c>
     </row>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>10.46.254.149/0</t>
+          <t>10.46.254.149</t>
         </is>
       </c>
     </row>
@@ -8132,7 +8132,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0</t>
+          <t>10.46.254.149, 10.46.254.149, 10.46.254.149, 10.46.254.149, 10.46.254.149, 10.46.254.149</t>
         </is>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0</t>
+          <t>10.46.254.149, 10.46.254.149, 10.46.254.149, 10.46.254.149, 10.46.254.149, 10.46.254.149, 10.46.254.149, 10.46.254.149, 10.46.254.149, 10.46.254.149</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>10.46.254.149/0, 10.46.254.149/0</t>
+          <t>10.46.254.149, 10.46.254.149</t>
         </is>
       </c>
     </row>
@@ -8247,7 +8247,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0, 10.46.254.149/0</t>
+          <t>10.46.254.149, 10.46.254.149, 10.46.254.149, 10.46.254.149, 10.46.254.149, 10.46.254.149</t>
         </is>
       </c>
     </row>
@@ -8279,7 +8279,7 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>10.46.254.48/0, 10.46.254.214/0</t>
+          <t>10.46.254.48, 10.46.254.214</t>
         </is>
       </c>
     </row>
@@ -8822,10 +8822,43 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
+          <t>TLS Version 1.1 Deprecated Protocol</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>TLSv1.1 is enabled and the server supports at least one cipher.</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Enable support for TLS 1.2 and/or 1.3, and disable support for TLS 1.1.</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>https://datatracker.ietf.org/doc/html/rfc8996
+http://www.nessus.org/u?c8ae820d</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>10.46.254.48/3389</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
           <t>WinVerifyTrust Signature Validation CVE-2013-3900 Mitigation (EnableCertPaddingCheck)</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t xml:space="preserve">
  Nessus detected the following potentially insecure registry key configuration:
@@ -8834,7 +8867,7 @@
 </t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>Add and enable registry value EnableCertPaddingCheck:
   - HKEY_LOCAL_MACHINE\Software\Microsoft\Cryptography\Wintrust\Config\EnableCertPaddingCheck
@@ -8842,30 +8875,30 @@
   - HKEY_LOCAL_MACHINE\Software\Wow6432Node\Microsoft\Cryptography\Wintrust\Config\EnableCertPaddingCheck</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
         <is>
           <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2013-3900
 http://www.nessus.org/u?9780b9d2</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>10.46.254.48/445, 10.46.254.214/445</t>
         </is>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
+    <row r="225">
+      <c r="A225" t="inlineStr">
         <is>
           <t>Apache Tomcat 9.0.40 &lt; 9.0.69</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : C:\IACS\server\apache-tomcat-9.0.54\bin\Tomcat9.exe
@@ -8874,35 +8907,35 @@
 </t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>Upgrade to Apache Tomcat version 9.0.69 or later.</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
         <is>
           <t>http://www.nessus.org/u?5c2d6150
 http://www.nessus.org/u?041d1b23</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>10.46.254.48/445</t>
         </is>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
+    <row r="226">
+      <c r="A226" t="inlineStr">
         <is>
           <t>Security Updates for Windows Malicious Software Removal Tool (January 2023)</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Product           : Microsoft Malicious Software Removal Tool
@@ -8911,34 +8944,34 @@
 </t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>Microsoft has released version 5.109 to address this issue.</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr">
+      <c r="D226" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>http://www.nessus.org/u?867b0b4e</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="F226" t="inlineStr">
         <is>
           <t>10.46.254.48/445, 10.46.254.214/445</t>
         </is>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
+    <row r="227">
+      <c r="A227" t="inlineStr">
         <is>
           <t>Apache Tomcat 9.0.0.M1 &lt; 9.0.71</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : C:\IACS\server\apache-tomcat-9.0.54\bin\Tomcat9.exe
@@ -8947,35 +8980,35 @@
 </t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>Upgrade to Apache Tomcat version 9.0.71 or later.</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
         <is>
           <t>http://www.nessus.org/u?4e5de685
 http://www.nessus.org/u?47f6bf65</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
+      <c r="F227" t="inlineStr">
         <is>
           <t>10.46.254.48/445</t>
         </is>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t>Apache Tomcat 9.0.0.M1 &lt; 9.0.72</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : C:\IACS\server\apache-tomcat-9.0.54\bin\Tomcat9.exe
@@ -8984,36 +9017,36 @@
 </t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>Upgrade to Apache Tomcat version 9.0.72 or later.</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
+      <c r="D228" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>http://www.nessus.org/u?f8ac9d8a
 https://bz.apache.org/bugzilla/show_bug.cgi?id=66471
 http://www.nessus.org/u?fa600361</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>10.46.254.48/445</t>
         </is>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
+    <row r="229">
+      <c r="A229" t="inlineStr">
         <is>
           <t>Trellix Agent &lt; 5.7.9 Multiple Vulnerabilities (SB10396)</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : C:\Program Files\McAfee\Agent\x86
@@ -9022,34 +9055,34 @@
 </t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>Upgrade to McAfee Agent version 5.7.9 or later.</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
         <is>
           <t>https://kcm.trellix.com/corporate/index?page=content&amp;id=SB10396</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="F229" t="inlineStr">
         <is>
           <t>10.46.254.48/445, 10.46.254.48/445, 10.46.254.214/445, 10.46.254.214/445</t>
         </is>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
+    <row r="230">
+      <c r="A230" t="inlineStr">
         <is>
           <t>7-Zip &lt; 23.00 Multiple Vulnerabilities</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : C:\Program Files\7-Zip
@@ -9058,35 +9091,35 @@
 </t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>Upgrade to 7-Zip version 23.00 or later.</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
         <is>
           <t>https://www.7-zip.org/history.txt
 https://www.zerodayinitiative.com/advisories/ZDI-23-1164/</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
+      <c r="F230" t="inlineStr">
         <is>
           <t>10.46.254.48/445, 10.46.254.48/445, 10.46.254.214/445, 10.46.254.214/445</t>
         </is>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
+    <row r="231">
+      <c r="A231" t="inlineStr">
         <is>
           <t>Notepad++ &lt; 8.5.7 Multiple Buffer Overflow Vulnerabilities</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : C:\Program Files\Notepad++
@@ -9095,34 +9128,34 @@
 </t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>Upgrade to Notepad++ 8.5.7 or later.</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
         <is>
           <t>https://notepad-plus-plus.org/news/v857-released-fix-security-issues/</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>10.46.254.48/0, 10.46.254.48/0, 10.46.254.48/0, 10.46.254.48/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>10.46.254.48, 10.46.254.48, 10.46.254.48, 10.46.254.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
         <is>
           <t>Tenable Nessus Agent SEoL (8.3.x)</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path                                   : C:\Program Files\Tenable\Nessus Agent
@@ -9132,34 +9165,34 @@
 </t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>Upgrade to a version of Tenable Nessus Agent that is currently supported.</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
+      <c r="D232" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>http://www.nessus.org/u?e7570286</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>10.46.254.48/0, 10.46.254.214/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>10.46.254.48, 10.46.254.214</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
         <is>
           <t>Trellix Endpoint Security for Windows &lt; 10.7.0 September 2023 Update Code Injection (SB10405)</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : C:\Program Files\McAfee\Endpoint Security\
@@ -9168,35 +9201,35 @@
 </t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>Apply the 10.7.0 September 2023 Update or later.</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
         <is>
           <t>https://kcm.trellix.com/corporate/index?page=content&amp;id=SB10405
 http://www.nessus.org/u?de265897</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>10.46.254.48/445, 10.46.254.214/445</t>
         </is>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
+    <row r="234">
+      <c r="A234" t="inlineStr">
         <is>
           <t>Intel Chipset Device Software &lt; 10.1.19444.8378 Escalation of Privilege</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : C:\Program Files\Intel\Intel(R) Chipset Device Software
@@ -9205,35 +9238,35 @@
 </t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>Upgrade to Intel Chipset Device Software version 10.1.19444.8378 or later.</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
         <is>
           <t>http://www.nessus.org/u?5ecbc9ca
 http://www.nessus.org/u?1d63a61d</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445</t>
         </is>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
+    <row r="235">
+      <c r="A235" t="inlineStr">
         <is>
           <t>Apache Tomcat 9.0.0.M1 &lt; 9.0.90</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : C:\IACS\server\apache-tomcat-9.0.54\bin\Tomcat9.exe
@@ -9242,35 +9275,35 @@
 </t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>Upgrade to Apache Tomcat version 9.0.90 or later.</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
         <is>
           <t>http://www.nessus.org/u?c0d803ed
 http://www.nessus.org/u?9c97b7d7</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F235" t="inlineStr">
         <is>
           <t>10.46.254.48/445</t>
         </is>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
+    <row r="236">
+      <c r="A236" t="inlineStr">
         <is>
           <t>Tenable Nessus Agent &lt; 10.7.3 and earlier Multiple Vulnerabilities (TNS-2024-14)</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : C:\Program Files\Tenable\Nessus Agent
@@ -9279,35 +9312,35 @@
 </t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>Upgrade to Tenable Nessus Agent 10.7.3 or later.</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
+      <c r="D236" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>http://www.nessus.org/u?40ead603
 https://www.tenable.com/security/TNS-2024-14</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>10.46.254.48/0, 10.46.254.48/0, 10.46.254.48/0, 10.46.254.214/0, 10.46.254.214/0, 10.46.254.214/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>10.46.254.48, 10.46.254.48, 10.46.254.48, 10.46.254.214, 10.46.254.214, 10.46.254.214</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
         <is>
           <t>KB5044293: Windows 10 Version 1607 / Windows Server 2016 Security Update (October 2024)</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The remote host is missing one of the following rollup KBs : 
@@ -9318,34 +9351,34 @@
 </t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>Apply Security Update 5044293</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
+      <c r="D237" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>https://support.microsoft.com/help/5044293</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445</t>
         </is>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
+    <row r="238">
+      <c r="A238" t="inlineStr">
         <is>
           <t>Mozilla Firefox &lt; 131.0.3</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : C:\Program Files\Mozilla Firefox
@@ -9354,34 +9387,34 @@
 </t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>Upgrade to Mozilla Firefox version 131.0.3 or later.</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
         <is>
           <t>https://www.mozilla.org/en-US/security/advisories/mfsa2024-53/</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>10.46.254.48/445</t>
         </is>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
+    <row r="239">
+      <c r="A239" t="inlineStr">
         <is>
           <t>KB5044277: Windows 10 version 1809 / Windows Server 2019 Security Update (October 2024)</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B239" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The remote host is missing one of the following rollup KBs : 
@@ -9392,34 +9425,34 @@
 </t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C239" t="inlineStr">
         <is>
           <t>Apply Security Update 5044277</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
+      <c r="D239" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
+      <c r="E239" t="inlineStr">
         <is>
           <t>https://support.microsoft.com/help/5044277</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
+      <c r="F239" t="inlineStr">
         <is>
           <t>10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445, 10.46.254.214/445</t>
         </is>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
+    <row r="240">
+      <c r="A240" t="inlineStr">
         <is>
           <t>Microsoft Edge (Chromium) &lt; 129.0.2792.89 Multiple Vulnerabilities</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : C:\Program Files (x86)\Microsoft\Edge\Application
@@ -9428,36 +9461,36 @@
 </t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>Upgrade to Microsoft Edge version 129.0.2792.89 or later.</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
         <is>
           <t>http://www.nessus.org/u?e8753453
 https://msrc.microsoft.com/update-guide/vulnerability/CVE-2024-9602
 https://msrc.microsoft.com/update-guide/vulnerability/CVE-2024-9603</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
+      <c r="F240" t="inlineStr">
         <is>
           <t>10.46.254.214/445, 10.46.254.214/445</t>
         </is>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
+    <row r="241">
+      <c r="A241" t="inlineStr">
         <is>
           <t>Security Updates for Microsoft .NET Framework (October 2024)</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B241" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Microsoft .NET Framework 4.7.2
@@ -9470,17 +9503,17 @@
 </t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>Microsoft has released security updates for Microsoft .NET Framework.</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
         <is>
           <t>http://www.nessus.org/u?3d19e8dd
 https://msrc.microsoft.com/update-guide/vulnerability/CVE-2024-43483
@@ -9506,19 +9539,19 @@
 https://support.microsoft.com/en-us/help/5044035</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
+      <c r="F241" t="inlineStr">
         <is>
           <t>10.46.254.214/445, 10.46.254.214/445</t>
         </is>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
+    <row r="242">
+      <c r="A242" t="inlineStr">
         <is>
           <t>ICMP Timestamp Request Remote Date Disclosure</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B242" t="inlineStr">
         <is>
           <t xml:space="preserve">This host returns non-standard timestamps (high bit is set)
 The ICMP timestamps might be in little endian format (not in network format)
@@ -9526,31 +9559,31 @@
 </t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="C242" t="inlineStr">
         <is>
           <t>Filter out the ICMP timestamp requests (13), and the outgoing ICMP
 timestamp replies (14).</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr">
+      <c r="D242" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>10.46.254.196/0, 10.46.254.197/0, 10.46.254.199/0, 10.46.254.201/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>10.46.254.196, 10.46.254.197, 10.46.254.199, 10.46.254.201</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
         <is>
           <t>SSL Certificate Cannot Be Trusted</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B243" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The following certificate was at the top of the certificate
@@ -9561,35 +9594,35 @@
 </t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="C243" t="inlineStr">
         <is>
           <t>Purchase or generate a proper SSL certificate for this service.</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr">
+      <c r="D243" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="E243" t="inlineStr">
         <is>
           <t>https://www.itu.int/rec/T-REC-X.509/en
 https://en.wikipedia.org/wiki/X.509</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
+      <c r="F243" t="inlineStr">
         <is>
           <t>10.46.254.196/636, 10.46.254.196/3269, 10.46.254.196/3389, 10.46.254.197/636, 10.46.254.197/3269, 10.46.254.197/3389, 10.46.254.199/443, 10.46.254.199/3389, 10.46.254.199/8443, 10.46.254.199/8444, 10.46.254.199/9443, 10.46.254.201/3389</t>
         </is>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
+    <row r="244">
+      <c r="A244" t="inlineStr">
         <is>
           <t>Windows Speculative Execution Configuration Check</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t xml:space="preserve">Current Settings:
   - SYSTEM\CurrentControlSet\Control\Session Manager\Memory Management\
@@ -9610,35 +9643,35 @@
 </t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>Apply vendor recommended settings.</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
+      <c r="D244" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
+      <c r="E244" t="inlineStr">
         <is>
           <t>http://www.nessus.org/u?8902cebb
 http://www.nessus.org/u?6a005ed4</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
+      <c r="F244" t="inlineStr">
         <is>
           <t>10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445</t>
         </is>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
+    <row r="245">
+      <c r="A245" t="inlineStr">
         <is>
           <t>Windows Security Feature Bypass in Secure Boot (BootHole)</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Windows Secure Boot forbidden signature database (DBX) did not contain the expected certificates.
@@ -9650,18 +9683,18 @@
 </t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>Apply the DBX update from March 2, 2021 or later,
 Install Microsoft KB5012170.</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
         <is>
           <t>http://www.nessus.org/u?6f75665a
 http://www.nessus.org/u?827c25cc
@@ -9670,19 +9703,19 @@
 https://uefi.org/revocationlistfile/archive</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
+      <c r="F245" t="inlineStr">
         <is>
           <t>10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445</t>
         </is>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
+    <row r="246">
+      <c r="A246" t="inlineStr">
         <is>
           <t>Apache Log4j 2.0 &lt; 2.3.2 / 2.4 &lt; 2.12.4 / 2.13 &lt; 2.17.1 RCE</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : C:\temp\cis-cat\cis-cat-full\lib\log4j-core-2.3.jar
@@ -9691,7 +9724,7 @@
 </t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>Upgrade to Apache Log4j version 2.17.1, 2.12.4, or 2.3.2 or later, or apply the vendor mitigation.
 Upgrading to the latest versions for Apache Log4j is highly recommended as intermediate 
@@ -9701,29 +9734,29 @@
 versions.</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr">
+      <c r="D246" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="E246" t="inlineStr">
         <is>
           <t>https://logging.apache.org/log4j/2.x/security.html</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>10.46.254.196/0, 10.46.254.196/0, 10.46.254.197/0, 10.46.254.199/0, 10.46.254.199/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>10.46.254.196, 10.46.254.196, 10.46.254.197, 10.46.254.199, 10.46.254.199</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
         <is>
           <t>Apache Log4j 1.x Multiple Vulnerabilities</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B247" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : C:\Dinesh(SDI)\ePO_5.10.0_Update_8\resources\app\release\tomcat\server\lib\log4j-1.2.17.jar
@@ -9731,7 +9764,7 @@
 </t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C247" t="inlineStr">
         <is>
           <t>Upgrade to a version of Apache Log4j that is currently supported.
 Upgrading to the latest versions for Apache Log4j is highly recommended as intermediate 
@@ -9741,29 +9774,105 @@
 versions.</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr">
+      <c r="D247" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>https://logging.apache.org/log4j/1.2/</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
+      <c r="F247" t="inlineStr">
         <is>
           <t>10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445</t>
         </is>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>WinVerifyTrust Signature Validation CVE-2013-3900 Mitigation (EnableCertPaddingCheck)</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ Nessus detected the following potentially insecure registry key configuration:
+    - Software\Microsoft\Cryptography\Wintrust\Config\EnableCertPaddingCheck is not present in the registry.
+    - Software\Wow6432Node\Microsoft\Cryptography\Wintrust\Config\EnableCertPaddingCheck is not present in the registry.
+</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Add and enable registry value EnableCertPaddingCheck:
+  - HKEY_LOCAL_MACHINE\Software\Microsoft\Cryptography\Wintrust\Config\EnableCertPaddingCheck
+Additionally, on 64 Bit OS systems, Add and enable registry value EnableCertPaddingCheck:
+  - HKEY_LOCAL_MACHINE\Software\Wow6432Node\Microsoft\Cryptography\Wintrust\Config\EnableCertPaddingCheck</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2013-3900
+http://www.nessus.org/u?9780b9d2</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>10.46.254.196/445, 10.46.254.197/445, 10.46.254.199/445, 10.46.254.201/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Security Updates for Windows Malicious Software Removal Tool (January 2023)</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  Product           : Microsoft Malicious Software Removal Tool
+  Installed version : 5.101.19137.3
+  Fixed version     : 5.109.19957.1
+</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Microsoft has released version 5.109 to address this issue.</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>http://www.nessus.org/u?867b0b4e</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>10.46.254.196/445, 10.46.254.197/445, 10.46.254.199/445, 10.46.254.201/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
         <is>
           <t>Curl Use-After-Free &lt; 7.87 (CVE-2022-43552)</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : c:\windows\system32\curl.exe
@@ -9772,34 +9881,70 @@
 </t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>Upgrade Curl to version 7.87.0 or later</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr">
+      <c r="D250" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
+      <c r="E250" t="inlineStr">
         <is>
           <t>https://curl.se/docs/CVE-2022-43552.html</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
+      <c r="F250" t="inlineStr">
         <is>
           <t>10.46.254.196/445, 10.46.254.196/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.201/445, 10.46.254.201/445</t>
         </is>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Trellix Agent &lt; 5.7.9 Multiple Vulnerabilities (SB10396)</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  Path              : C:\Program Files\McAfee\Agent\x86
+  Installed version : 5.7.6.251
+  Fixed version     : 5.7.9
+</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Upgrade to McAfee Agent version 5.7.9 or later.</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>https://kcm.trellix.com/corporate/index?page=content&amp;id=SB10396</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>10.46.254.196/445, 10.46.254.196/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.201/445, 10.46.254.201/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
         <is>
           <t>Apache Log4j SEoL (&lt;= 1.x)</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path                                   : C:\Dinesh(SDI)\ePO_5.10.0_Update_8\resources\app\release\tomcat\server\lib\log4j-1.2.17.jar
@@ -9809,35 +9954,109 @@
 </t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>Upgrade to a version of Apache Log4j that is currently supported.</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
+      <c r="D252" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E252" t="inlineStr">
         <is>
           <t>https://logging.apache.org/log4j/1.2/
 http://www.nessus.org/u?5384dc7a</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>10.46.254.196/0, 10.46.254.199/0, 10.46.254.199/0, 10.46.254.199/0, 10.46.254.199/0, 10.46.254.199/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>10.46.254.196, 10.46.254.199, 10.46.254.199, 10.46.254.199, 10.46.254.199, 10.46.254.199</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Tenable Nessus Agent SEoL (8.3.x)</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  Path                                   : C:\Program Files\Tenable\Nessus Agent
+  Installed version                      : 8.3.0
+  Security End of Life                   : December 31, 2022
+  Time since Security End of Life (Est.) : &gt;= 1 year
+</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Upgrade to a version of Tenable Nessus Agent that is currently supported.</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>http://www.nessus.org/u?e7570286</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>10.46.254.196, 10.46.254.197, 10.46.254.199, 10.46.254.201</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Trellix Endpoint Security for Windows &lt; 10.7.0 September 2023 Update Code Injection (SB10405)</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  Path              : C:\Program Files\McAfee\Endpoint Security\
+  Installed version : 10.7.0.1675
+  Fixed version     : ENS 10.7.0 September 2023 Update
+</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Apply the 10.7.0 September 2023 Update or later.</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>https://kcm.trellix.com/corporate/index?page=content&amp;id=SB10405
+http://www.nessus.org/u?de265897</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>10.46.254.196/445, 10.46.254.197/445, 10.46.254.199/445, 10.46.254.201/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
         <is>
           <t>VMware Tools 10.3.x / 11.x / 12.x &lt; 12.3.5 Token Bypass (VMSA-2023-0024)</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : C:\Program Files\VMware\VMware Tools\
@@ -9846,34 +10065,34 @@
 </t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>Upgrade to VMware Tools version 12.3.5 or later.</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr">
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
         <is>
           <t>https://www.vmware.com/security/advisories/VMSA-2023-0024.html</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
+      <c r="F255" t="inlineStr">
         <is>
           <t>10.46.254.196/445, 10.46.254.197/445, 10.46.254.199/445</t>
         </is>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
+    <row r="256">
+      <c r="A256" t="inlineStr">
         <is>
           <t>Oracle Java SE Multiple Vulnerabilities (July2024 CPU)</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t xml:space="preserve">
   Path              : C:\Program Files\Java\jre1.8.0_241\
@@ -9882,716 +10101,133 @@
 </t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>Apply the appropriate patch according to the July 2024 Oracle Critical Patch Update advisory.</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr">
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
         <is>
           <t>https://www.oracle.com/docs/tech/security-alerts/cpujul2024cvrf.xml
 https://www.oracle.com/security-alerts/cpujul2024.html#AppendixJAVA</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
+      <c r="F256" t="inlineStr">
         <is>
           <t>10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>SSL Certificate Expiry</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-The SSL certificate has already expired :
-  Subject          : C=SG, O=ICA, OU=Land Checkpoints Ops IACS WBH, CN=LC01LAIACSUPDT.iacs.wlds
-  Issuer           : C=SG, O=IDEMIA, OU=T4, CN=Servers CA
-  Not valid before : Apr  8 04:06:57 2020 GMT
-  Not valid after  : Apr  8 04:06:57 2023 GMT
-</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Purchase or generate a new SSL certificate to replace the existing
-one.</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>10.46.254.199/443</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>Mozilla Foundation Unsupported Application Detection</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-  Product           : Mozilla Firefox
-  Path              : C:\Program Files\Mozilla Firefox
-  Installed version : 75.0
-  Latest version    : 121.0.0
-  EOL URL           : https://www.mozilla.org/en-US/security/known-vulnerabilities/firefox/#firefox99
-</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Upgrade to a version that is currently supported.</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>https://www.mozilla.org/en-US/firefox/organizations/faq/
-https://www.mozilla.org/en-US/security/known-vulnerabilities/
-https://www.mozilla.org/en-US/firefox/new/
-https://www.mozilla.org/en-US/thunderbird/
-https://www.seamonkey-project.org/releases/</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>10.46.254.199/445, 10.46.254.201/445</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>SSL Certificate with Wrong Hostname</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-The identities known by Nessus are :
-  10.46.254.199
-  lc01laiacsupdt
-  10.46.254.199
-The Common Name in the certificate is :
-  Orion_ClientAuth_LC01LAIACSUPDT
-The Subject Alternate Name in the certificate is :
-  Orion_ClientAuth_LC01LAIACSUPDT
-</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>Purchase or generate a proper SSL certificate for this service.</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>10.46.254.199/8444, 10.46.254.199/9443, 10.46.254.201/3389</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>SSL Self-Signed Certificate</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-The following certificate was found at the top of the certificate
-chain sent by the remote host, but is self-signed and was not
-found in the list of known certificate authorities :
-|-Subject : O=McAfee/OU=Orion/CN=Orion_CA_LC01LAIACSUPDT
-</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>Purchase or generate a proper SSL certificate for this service.</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>10.46.254.199/8444</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>McAfee ePolicy Orchestrator Multiple Vulnerabilities (SB10387)</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-  Path              : C:\Program Files (x86)\McAfee\ePolicy Orchestrator\
-  Installed version : 5.10.0.3242
-  Fixed version     : 5.10.0 Update 14
-</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Upgrade to McAfee ePO version 5.10.0 Update 14 or later.</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>https://kcm.trellix.com/corporate/index?page=content&amp;id=SB10387</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>10.46.254.199/0, 10.46.254.199/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>Microsoft Windows Admin Center Spoofing (July 2023)</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-  Path              : C:\Program Files\Windows Admin Center\
-  Installed version : 1.2.2003.11001
-  Fixed version     : 1.5.2306.14001
-</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>Apply the appropriate update referenced in the Microsoft advisory.</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-29347
-http://www.nessus.org/u?64e0663b</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>10.46.254.199/445</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Security Updates for Microsoft SQL Server (CVE-2024-43474) (September 2024)</t>
+          <t>Tenable Nessus Agent &lt; 10.7.3 and earlier Multiple Vulnerabilities (TNS-2024-14)</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
           <t xml:space="preserve">
-  KB : 5042217
-  - c:\Program Files\Microsoft SQL Server\MSSQL14.SQLEXPRESS_EPO\MSSQL\Binn\sqlservr.exe has not been patched.
-    Remote version : 2017.140.2037.2
-    Should be      : 2017.140.2060.1
-  SQL Server Version   : 14.0.2037.2 Express Edition
-  SQL Server Instance  : SQLEXPRESS_EPO
+  Path              : C:\Program Files\Tenable\Nessus Agent
+  Installed version : 8.3.0
+  Fixed version     : 10.7.3
 </t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Microsoft has released security updates for Microsoft SQL Server.</t>
+          <t>Upgrade to Tenable Nessus Agent 10.7.3 or later.</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://support.microsoft.com/en-us/help/5042215
-https://support.microsoft.com/en-us/help/5042214
-https://support.microsoft.com/en-us/help/5042217</t>
+          <t>http://www.nessus.org/u?40ead603
+https://www.tenable.com/security/TNS-2024-14</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>10.46.254.199/445</t>
+          <t>10.46.254.196, 10.46.254.196, 10.46.254.196, 10.46.254.197, 10.46.254.197, 10.46.254.197, 10.46.254.199, 10.46.254.199, 10.46.254.199, 10.46.254.201, 10.46.254.201, 10.46.254.201</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Mozilla Firefox &lt; 131.0.3</t>
+          <t>KB5044277: Windows 10 version 1809 / Windows Server 2019 Security Update (October 2024)</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
           <t xml:space="preserve">
-  Path              : C:\Program Files\Mozilla Firefox
-  Installed version : 75.0
-  Fixed version     : 131.0.3
+The remote host is missing one of the following rollup KBs : 
+  - 5044277
+  - C:\Windows\system32\ntoskrnl.exe has not been patched.
+    Remote version : 10.0.17763.2928
+    Should be      : 10.0.17763.6414
 </t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Upgrade to Mozilla Firefox version 131.0.3 or later.</t>
+          <t>Apply Security Update 5044277</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://www.mozilla.org/en-US/security/advisories/mfsa2024-53/</t>
+          <t>https://support.microsoft.com/help/5044277</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>10.46.254.199/445, 10.46.254.201/445</t>
+          <t>10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.196/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Microsoft SQL Server Unsupported Version Detection</t>
+          <t>Security Updates for Microsoft .NET Framework (October 2024)</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
           <t xml:space="preserve">
-The following unsupported installations of Microsoft SQL Server were
-detected :
-  Installed version         : 13.0.5865.1 Express Edition
-  Install path              : C:\Program Files\Microsoft SQL Server\MSSQL13.VEEAMSQL2016\MSSQL\Binn
-  Instance                  : VEEAMSQL2016
-  Minimum supported version : 13.0.6300.2 (2016 SP3)
-</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Upgrade to a version of Microsoft SQL Server that is currently
-supported.</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>http://www.nessus.org/u?d4418a57</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>10.46.254.201/445</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Security Updates for Microsoft SQL Server (June 2022)</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-  KB : 5014351
-  - C:\Program Files\Microsoft SQL Server\MSSQL13.VEEAMSQL2016\MSSQL\Binn\sqlservr.exe has not been patched.
-    Remote version : 2015.131.5865.1
-    Should be      : 2015.131.5893.48
-  SQL Server Version   : 13.0.5865.1 Express Edition
-  SQL Server Instance  : VEEAMSQL2016
-</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Microsoft has released the following security updates to address this issue:  
-  -KB5015371
-  -KB5014553
-  -KB5014351
-  -KB5014353
-  -KB5014354
-  -KB5014356
-  -KB5014365
-  -KB5014355
-  -KB5014165
-  -KB5014164</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>https://support.microsoft.com/en-us/help/5015371
-https://support.microsoft.com/en-us/help/5014553
-https://support.microsoft.com/en-us/help/5014351
-https://support.microsoft.com/en-us/help/5014353
-https://support.microsoft.com/en-us/help/5014354
-https://support.microsoft.com/en-us/help/5014356
-https://support.microsoft.com/en-us/help/5014365
-https://support.microsoft.com/en-us/help/5014355
-https://support.microsoft.com/en-us/help/5014165
-https://support.microsoft.com/en-us/help/5014164</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>10.46.254.201/445</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Notepad++ &lt; 8.5.7 Multiple Buffer Overflow Vulnerabilities</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-  Path              : C:\Program Files\Notepad++
-  Installed version : 7.0.0.0
-  Fixed version     : 8.5.7
-</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Upgrade to Notepad++ 8.5.7 or later.</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>https://notepad-plus-plus.org/news/v857-released-fix-security-issues/</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>10.46.254.201/0, 10.46.254.201/0, 10.46.254.201/0, 10.46.254.201/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Intel Chipset Device Software &lt; 10.1.19444.8378 Escalation of Privilege</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-  Path              : C:\Program Files\Intel\Intel(R) Chipset Device Software
-  Installed version : 10.1.17861.8101
-  Fixed version     : 10.1.19444.8378
-</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Upgrade to Intel Chipset Device Software version 10.1.19444.8378 or later.</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr">
-        <is>
-          <t>http://www.nessus.org/u?5ecbc9ca
-http://www.nessus.org/u?1d63a61d</t>
-        </is>
-      </c>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Security Update for Microsoft ASP.NET Core (February 2024) (CVE-2024-21386)</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-  Path              : C:\Program Files\dotnet\shared\Microsoft.AspNetCore.App\6.0.24
-  Installed version : 6.0.24
-  Fixed version     : 6.0.27
-</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>Update .NET Core, remove vulnerable packages and refer to vendor advisory.</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>https://dotnet.microsoft.com/en-us/download/dotnet/8.0
-https://github.com/dotnet/announcements/issues/295
-https://msrc.microsoft.com/update-guide/vulnerability/CVE-2024-21386
-http://www.nessus.org/u?0b5f551d</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>10.46.254.201/445</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>WinSCP &lt; 6.3.3 Key Recovery Attack Vulnerability</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-  Path              : C:\Program Files (x86)\WinSCP\
-  Installed version : 5.15.7.10060
-  Fixed version     : 6.3.3
-</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>Upgrade to WinSCP version 6.3.3 or later.</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr">
-        <is>
-          <t>http://www.nessus.org/u?0d963cbf</t>
-        </is>
-      </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>10.46.254.201/445</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Veeam Backup and Replication 12.x &lt; 12.2.0.334 Multiple Vulnerabilities (September 2024) (KB4649)</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-  Path              : C:\Program Files\Veeam\Backup and Replication\Backup\
-  Installed version : 12.1.0.2131
-  Fixed version     : 12.2.0.334
-</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Upgrade to Veeam Backup and Replication version 12.2.0.334 or later.</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr">
-        <is>
-          <t>https://www.veeam.com/kb4649</t>
-        </is>
-      </c>
-      <c r="F265" t="inlineStr">
-        <is>
-          <t>10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Security Update for Microsoft .NET Core (October 2024)</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-  Path              : C:\Program Files\dotnet\shared\Microsoft.NetCore.App\6.0.24\
-  Installed version : 6.0.24.33018
-  Fixed version     : 6.0.35
-</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>Update .NET Core, remove vulnerable packages and refer to vendor advisory.</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>https://dotnet.microsoft.com/en-us/download/dotnet/6.0
-https://dotnet.microsoft.com/en-us/download/dotnet/8.0
-https://dotnet.microsoft.com/en-us/download/dotnet/9.0
-https://msrc.microsoft.com/update-guide/vulnerability/CVE-2024-38229
-https://msrc.microsoft.com/update-guide/vulnerability/CVE-2024-43483
-https://msrc.microsoft.com/update-guide/vulnerability/CVE-2024-43484
-https://msrc.microsoft.com/update-guide/vulnerability/CVE-2024-43485
-https://support.microsoft.com/help/5045993
-https://support.microsoft.com/help/5045998
-http://www.nessus.org/u?9cc66f2f
-http://www.nessus.org/u?3c2759dc
-http://www.nessus.org/u?c2fe88ca</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>ICMP Timestamp Request Remote Date Disclosure</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This host returns non-standard timestamps (high bit is set)
-The ICMP timestamps might be in little endian format (not in network format)
-The difference between the local and remote clocks is 8 seconds.
-</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Filter out the ICMP timestamp requests (13), and the outgoing ICMP
-timestamp replies (14).</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>10.46.254.48/0, 10.46.254.49/0, 10.46.254.131/0</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>Security Updates for Microsoft .NET Framework (October 2024)</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Microsoft .NET Framework 4.8
+Microsoft .NET Framework 4.7.2
 The remote host is missing one of the following rollup KBs : 
 Cumulative
-  - 5044022
-C:\Windows\Microsoft.NET\Framework\v4.0.30319\system.web.dll has not been patched.
-    Remote version : 4.8.4494.0
-    Should be      : 4.8.4762.0
-</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
+  - 5044016
+C:\Windows\Microsoft.NET\Framework\v4.0.30319\system.core.dll has not been patched.
+    Remote version : 4.7.3910.0
+    Should be      : 4.7.4115.0
+</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
         <is>
           <t>Microsoft has released security updates for Microsoft .NET Framework.</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
         <is>
           <t>http://www.nessus.org/u?3d19e8dd
 https://msrc.microsoft.com/update-guide/vulnerability/CVE-2024-43483
@@ -10617,40 +10253,1028 @@
 https://support.microsoft.com/en-us/help/5044035</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>10.46.254.196/445, 10.46.254.196/445, 10.46.254.197/445, 10.46.254.197/445, 10.46.254.199/445, 10.46.254.199/445, 10.46.254.201/445, 10.46.254.201/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>SSL Certificate Expiry</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The SSL certificate has already expired :
+  Subject          : C=SG, O=ICA, OU=Land Checkpoints Ops IACS WBH, CN=LC01LAIACSUPDT.iacs.wlds
+  Issuer           : C=SG, O=IDEMIA, OU=T4, CN=Servers CA
+  Not valid before : Apr  8 04:06:57 2020 GMT
+  Not valid after  : Apr  8 04:06:57 2023 GMT
+</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Purchase or generate a new SSL certificate to replace the existing
+one.</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>10.46.254.199/443</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Mozilla Foundation Unsupported Application Detection</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  Product           : Mozilla Firefox
+  Path              : C:\Program Files\Mozilla Firefox
+  Installed version : 75.0
+  Latest version    : 121.0.0
+  EOL URL           : https://www.mozilla.org/en-US/security/known-vulnerabilities/firefox/#firefox99
+</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Upgrade to a version that is currently supported.</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>https://www.mozilla.org/en-US/firefox/organizations/faq/
+https://www.mozilla.org/en-US/security/known-vulnerabilities/
+https://www.mozilla.org/en-US/firefox/new/
+https://www.mozilla.org/en-US/thunderbird/
+https://www.seamonkey-project.org/releases/</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>10.46.254.199/445, 10.46.254.201/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>SSL Certificate with Wrong Hostname</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The identities known by Nessus are :
+  10.46.254.199
+  lc01laiacsupdt
+  10.46.254.199
+The Common Name in the certificate is :
+  Orion_ClientAuth_LC01LAIACSUPDT
+The Subject Alternate Name in the certificate is :
+  Orion_ClientAuth_LC01LAIACSUPDT
+</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Purchase or generate a proper SSL certificate for this service.</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>10.46.254.199/8444, 10.46.254.199/9443, 10.46.254.201/3389</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>SSL Self-Signed Certificate</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The following certificate was found at the top of the certificate
+chain sent by the remote host, but is self-signed and was not
+found in the list of known certificate authorities :
+|-Subject : O=McAfee/OU=Orion/CN=Orion_CA_LC01LAIACSUPDT
+</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Purchase or generate a proper SSL certificate for this service.</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>10.46.254.199/8444</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>McAfee ePolicy Orchestrator Multiple Vulnerabilities (SB10387)</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  Path              : C:\Program Files (x86)\McAfee\ePolicy Orchestrator\
+  Installed version : 5.10.0.3242
+  Fixed version     : 5.10.0 Update 14
+</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Upgrade to McAfee ePO version 5.10.0 Update 14 or later.</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>https://kcm.trellix.com/corporate/index?page=content&amp;id=SB10387</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>10.46.254.199, 10.46.254.199</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Microsoft Windows Admin Center Spoofing (July 2023)</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  Path              : C:\Program Files\Windows Admin Center\
+  Installed version : 1.2.2003.11001
+  Fixed version     : 1.5.2306.14001
+</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Apply the appropriate update referenced in the Microsoft advisory.</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>https://msrc.microsoft.com/update-guide/vulnerability/CVE-2023-29347
+http://www.nessus.org/u?64e0663b</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>10.46.254.199/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Security Updates for Microsoft SQL Server (CVE-2024-43474) (September 2024)</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  KB : 5042217
+  - c:\Program Files\Microsoft SQL Server\MSSQL14.SQLEXPRESS_EPO\MSSQL\Binn\sqlservr.exe has not been patched.
+    Remote version : 2017.140.2037.2
+    Should be      : 2017.140.2060.1
+  SQL Server Version   : 14.0.2037.2 Express Edition
+  SQL Server Instance  : SQLEXPRESS_EPO
+</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Microsoft has released security updates for Microsoft SQL Server.</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>https://support.microsoft.com/en-us/help/5042215
+https://support.microsoft.com/en-us/help/5042214
+https://support.microsoft.com/en-us/help/5042217</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>10.46.254.199/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Mozilla Firefox &lt; 131.0.3</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  Path              : C:\Program Files\Mozilla Firefox
+  Installed version : 75.0
+  Fixed version     : 131.0.3
+</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Upgrade to Mozilla Firefox version 131.0.3 or later.</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>https://www.mozilla.org/en-US/security/advisories/mfsa2024-53/</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>10.46.254.199/445, 10.46.254.201/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Microsoft SQL Server Unsupported Version Detection</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The following unsupported installations of Microsoft SQL Server were
+detected :
+  Installed version         : 13.0.5865.1 Express Edition
+  Install path              : C:\Program Files\Microsoft SQL Server\MSSQL13.VEEAMSQL2016\MSSQL\Binn
+  Instance                  : VEEAMSQL2016
+  Minimum supported version : 13.0.6300.2 (2016 SP3)
+</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Upgrade to a version of Microsoft SQL Server that is currently
+supported.</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>http://www.nessus.org/u?d4418a57</t>
+        </is>
+      </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>10.46.254.131/445, 10.46.254.131/445</t>
+          <t>10.46.254.201/445</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
+          <t>Security Updates for Microsoft SQL Server (June 2022)</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  KB : 5014351
+  - C:\Program Files\Microsoft SQL Server\MSSQL13.VEEAMSQL2016\MSSQL\Binn\sqlservr.exe has not been patched.
+    Remote version : 2015.131.5865.1
+    Should be      : 2015.131.5893.48
+  SQL Server Version   : 13.0.5865.1 Express Edition
+  SQL Server Instance  : VEEAMSQL2016
+</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Microsoft has released the following security updates to address this issue:  
+  -KB5015371
+  -KB5014553
+  -KB5014351
+  -KB5014353
+  -KB5014354
+  -KB5014356
+  -KB5014365
+  -KB5014355
+  -KB5014165
+  -KB5014164</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>https://support.microsoft.com/en-us/help/5015371
+https://support.microsoft.com/en-us/help/5014553
+https://support.microsoft.com/en-us/help/5014351
+https://support.microsoft.com/en-us/help/5014353
+https://support.microsoft.com/en-us/help/5014354
+https://support.microsoft.com/en-us/help/5014356
+https://support.microsoft.com/en-us/help/5014365
+https://support.microsoft.com/en-us/help/5014355
+https://support.microsoft.com/en-us/help/5014165
+https://support.microsoft.com/en-us/help/5014164</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>10.46.254.201/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Notepad++ &lt; 8.5.7 Multiple Buffer Overflow Vulnerabilities</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  Path              : C:\Program Files\Notepad++
+  Installed version : 7.0.0.0
+  Fixed version     : 8.5.7
+</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Upgrade to Notepad++ 8.5.7 or later.</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>https://notepad-plus-plus.org/news/v857-released-fix-security-issues/</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>10.46.254.201, 10.46.254.201, 10.46.254.201, 10.46.254.201</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Intel Chipset Device Software &lt; 10.1.19444.8378 Escalation of Privilege</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  Path              : C:\Program Files\Intel\Intel(R) Chipset Device Software
+  Installed version : 10.1.17861.8101
+  Fixed version     : 10.1.19444.8378
+</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Upgrade to Intel Chipset Device Software version 10.1.19444.8378 or later.</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>http://www.nessus.org/u?5ecbc9ca
+http://www.nessus.org/u?1d63a61d</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Security Update for Microsoft ASP.NET Core (February 2024) (CVE-2024-21386)</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  Path              : C:\Program Files\dotnet\shared\Microsoft.AspNetCore.App\6.0.24
+  Installed version : 6.0.24
+  Fixed version     : 6.0.27
+</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Update .NET Core, remove vulnerable packages and refer to vendor advisory.</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>https://dotnet.microsoft.com/en-us/download/dotnet/8.0
+https://github.com/dotnet/announcements/issues/295
+https://msrc.microsoft.com/update-guide/vulnerability/CVE-2024-21386
+http://www.nessus.org/u?0b5f551d</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>10.46.254.201/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>WinSCP &lt; 6.3.3 Key Recovery Attack Vulnerability</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  Path              : C:\Program Files (x86)\WinSCP\
+  Installed version : 5.15.7.10060
+  Fixed version     : 6.3.3
+</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Upgrade to WinSCP version 6.3.3 or later.</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>http://www.nessus.org/u?0d963cbf</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>10.46.254.201/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Veeam Backup and Replication 12.x &lt; 12.2.0.334 Multiple Vulnerabilities (September 2024) (KB4649)</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  Path              : C:\Program Files\Veeam\Backup and Replication\Backup\
+  Installed version : 12.1.0.2131
+  Fixed version     : 12.2.0.334
+</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Upgrade to Veeam Backup and Replication version 12.2.0.334 or later.</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Critical</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>https://www.veeam.com/kb4649</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Security Update for Microsoft .NET Core (October 2024)</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  Path              : C:\Program Files\dotnet\shared\Microsoft.NetCore.App\6.0.24\
+  Installed version : 6.0.24.33018
+  Fixed version     : 6.0.35
+</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Update .NET Core, remove vulnerable packages and refer to vendor advisory.</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>https://dotnet.microsoft.com/en-us/download/dotnet/6.0
+https://dotnet.microsoft.com/en-us/download/dotnet/8.0
+https://dotnet.microsoft.com/en-us/download/dotnet/9.0
+https://msrc.microsoft.com/update-guide/vulnerability/CVE-2024-38229
+https://msrc.microsoft.com/update-guide/vulnerability/CVE-2024-43483
+https://msrc.microsoft.com/update-guide/vulnerability/CVE-2024-43484
+https://msrc.microsoft.com/update-guide/vulnerability/CVE-2024-43485
+https://support.microsoft.com/help/5045993
+https://support.microsoft.com/help/5045998
+http://www.nessus.org/u?9cc66f2f
+http://www.nessus.org/u?3c2759dc
+http://www.nessus.org/u?c2fe88ca</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445, 10.46.254.201/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
           <t>ICMP Timestamp Request Remote Date Disclosure</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="B276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This host returns non-standard timestamps (high bit is set)
+The ICMP timestamps might be in little endian format (not in network format)
+The difference between the local and remote clocks is 8 seconds.
+</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Filter out the ICMP timestamp requests (13), and the outgoing ICMP
+timestamp replies (14).</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>10.46.254.48, 10.46.254.49, 10.46.254.131</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>SSL Medium Strength Cipher Suites Supported (SWEET32)</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+  Medium Strength Ciphers (&gt; 64-bit and &lt; 112-bit key, or 3DES)
+    Name                          Code             KEX           Auth     Encryption             MAC
+    ----------------------        ----------       ---           ----     ---------------------  ---
+    DES-CBC3-SHA                  0x00, 0x0A       RSA           RSA      3DES-CBC(168)          SHA1
+The fields above are :
+  {Tenable ciphername}
+  {Cipher ID code}
+  Kex={key exchange}
+  Auth={authentication}
+  Encrypt={symmetric encryption method}
+  MAC={message authentication code}
+  {export flag}
+</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Reconfigure the affected application if possible to avoid use of
+medium strength ciphers.</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>https://www.openssl.org/blog/blog/2016/08/24/sweet32/
+https://sweet32.info</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>10.46.254.48/3389, 10.46.254.49/3389</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>SSL Certificate Cannot Be Trusted</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The following certificate was at the top of the certificate
+chain sent by the remote host, but it is signed by an unknown
+certificate authority :
+|-Subject : CN=NWC05BBBIGX4013.iacs.wlds
+|-Issuer  : CN=NWC05BBBIGX4013.iacs.wlds
+</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Purchase or generate a proper SSL certificate for this service.</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>https://www.itu.int/rec/T-REC-X.509/en
+https://en.wikipedia.org/wiki/X.509</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>10.46.254.48/3389, 10.46.254.49/3389</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>SSL Self-Signed Certificate</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The following certificate was found at the top of the certificate
+chain sent by the remote host, but is self-signed and was not
+found in the list of known certificate authorities :
+|-Subject : CN=NWC05BBBIGX4013.iacs.wlds
+</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Purchase or generate a proper SSL certificate for this service.</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>10.46.254.48/3389, 10.46.254.49/3389</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Microsoft Windows Unquoted Service Path Enumeration</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Nessus found the following services with an untrusted path : 
+  Eaton IntelligentPowerProtector : C:\Program Files\Eaton\IntelligentPowerProtector\mc2.exe
+  DSCameraControlWinService : C:\Program Files\IDS\uEye\OtherDrivers\DirectShow\64\DSCameraControl.exe
+</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Ensure that any services that contain a space in the path enclose the
+path in quotes.</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>http://www.nessus.org/u?84a4cc1c
+http://cwe.mitre.org/data/definitions/428.html
+https://www.commonexploits.com/unquoted-service-paths/
+http://www.nessus.org/u?4aa6acbc</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>10.46.254.48/445, 10.46.254.48/445, 10.46.254.48/445, 10.46.254.49/445, 10.46.254.49/445, 10.46.254.49/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Insecure Windows Service Permissions</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Path : c:\eimservice\eim.exe
+Used by services : EIM Service
+File write allowed for groups : Authenticated Users (S-1-5-11)
+Path : c:\iacs\server\apache-tomcat-9.0.54\bin\tomcat9.exe
+Used by services : eim
+File write allowed for groups : Authenticated Users (S-1-5-11)
+Path : c:\morpho\morphosmart usb driver\serv_spusb.exe
+Used by services : MSO_SpUsb_Service
+File write allowed for groups : Authenticated Users (S-1-5-11)
+Path : d:\deployservice\deployservice.exe
+Used by services : DeployService
+File write allowed for groups : Authenticated Users (S-1-5-11)
+Path : d:\edoorservice\bin\edoorservice.exe
+Used by services : eDoor
+File write allowed for groups : Authenticated Users (S-1-5-11)
+Path : d:\morphowayupsservice\upsservice.exe
+Used by services : MorphoWayUPSService
+File write allowed for groups : Authenticated Users (S-1-5-11)
+Path : d:\onelook.service\onelook.control.service.exe
+Used by services : ONELOOK
+File write allowed for groups : Authenticated Users (S-1-5-11)
+</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Ensure the groups listed above do not have permissions to modify or
+write service executables. Additionally, ensure these groups do not
+have Full Control permission to any directories that contain service
+executables.</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>http://www.nessus.org/u?e4e766b2</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>10.46.254.48/445, 10.46.254.49/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>SSL RC4 Cipher Suites Supported (Bar Mitzvah)</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+List of RC4 cipher suites supported by the remote server :
+  High Strength Ciphers (&gt;= 112-bit key)
+    Name                          Code             KEX           Auth     Encryption             MAC
+    ----------------------        ----------       ---           ----     ---------------------  ---
+    RC4-MD5                       0x00, 0x04       RSA           RSA      RC4(128)               MD5
+    RC4-SHA                       0x00, 0x05       RSA           RSA      RC4(128)               SHA1
+The fields above are :
+  {Tenable ciphername}
+  {Cipher ID code}
+  Kex={key exchange}
+  Auth={authentication}
+  Encrypt={symmetric encryption method}
+  MAC={message authentication code}
+  {export flag}
+</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Reconfigure the affected application, if possible, to avoid use of RC4
+ciphers. Consider using TLS 1.2 with AES-GCM suites subject to browser
+and web server support.</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>https://www.rc4nomore.com/
+http://www.nessus.org/u?ac7327a0
+http://cr.yp.to/talks/2013.03.12/slides.pdf
+http://www.isg.rhul.ac.uk/tls/
+https://www.imperva.com/docs/HII_Attacking_SSL_when_using_RC4.pdf</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>10.46.254.48/3389, 10.46.254.48/3389, 10.46.254.49/3389, 10.46.254.49/3389</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Security Updates for Microsoft .NET Framework (October 2024)</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Microsoft .NET Framework 4.8
+The remote host is missing one of the following rollup KBs : 
+Cumulative
+  - 5044022
+C:\Windows\Microsoft.NET\Framework\v4.0.30319\system.web.dll has not been patched.
+    Remote version : 4.8.4494.0
+    Should be      : 4.8.4762.0
+</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Microsoft has released security updates for Microsoft .NET Framework.</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>http://www.nessus.org/u?3d19e8dd
+https://msrc.microsoft.com/update-guide/vulnerability/CVE-2024-43483
+https://msrc.microsoft.com/update-guide/vulnerability/CVE-2024-43484
+https://support.microsoft.com/en-us/help/5044009
+https://support.microsoft.com/en-us/help/5044010
+https://support.microsoft.com/en-us/help/5044011
+https://support.microsoft.com/en-us/help/5044012
+https://support.microsoft.com/en-us/help/5044016
+https://support.microsoft.com/en-us/help/5044017
+https://support.microsoft.com/en-us/help/5044018
+https://support.microsoft.com/en-us/help/5044019
+https://support.microsoft.com/en-us/help/5044021
+https://support.microsoft.com/en-us/help/5044022
+https://support.microsoft.com/en-us/help/5044023
+https://support.microsoft.com/en-us/help/5044024
+https://support.microsoft.com/en-us/help/5044025
+https://support.microsoft.com/en-us/help/5044026
+https://support.microsoft.com/en-us/help/5044028
+https://support.microsoft.com/en-us/help/5044029
+https://support.microsoft.com/en-us/help/5044030
+https://support.microsoft.com/en-us/help/5044033
+https://support.microsoft.com/en-us/help/5044035</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>10.46.254.131/445, 10.46.254.131/445</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>ICMP Timestamp Request Remote Date Disclosure</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
         <is>
           <t xml:space="preserve">The ICMP timestamps seem to be in little endian format (not in network format)
 The difference between the local and remote clocks is 8 seconds.
 </t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+      <c r="C284" t="inlineStr">
         <is>
           <t>Filter out the ICMP timestamp requests (13), and the outgoing ICMP
 timestamp replies (14).</t>
         </is>
       </c>
-      <c r="D269" t="inlineStr">
+      <c r="D284" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr">
-        <is>
-          <t>10.46.254.214/0</t>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>10.46.254.214</t>
         </is>
       </c>
     </row>
